--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstubbs5\OneDrive - The University of Western Ontario\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB277AF-41F9-45FA-93AE-14C58C98011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Trial</t>
   </si>
@@ -42,31 +43,28 @@
     <t>Filename_Right</t>
   </si>
   <si>
-    <t>test_L.jpg</t>
-  </si>
-  <si>
-    <t>test_R.jpg</t>
-  </si>
-  <si>
-    <t>test_2D.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>MonocR</t>
-  </si>
-  <si>
     <t>MonocL</t>
   </si>
   <si>
     <t>2D</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Pseudo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,23 +395,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="5" width="40.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -447,27 +446,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -481,25 +480,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -513,25 +512,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -545,27 +546,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB277AF-41F9-45FA-93AE-14C58C98011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166869A7-4B07-4B19-A580-20D6CD38EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
   <si>
     <t>Trial</t>
   </si>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>Pseudo</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
   </si>
 </sst>
 </file>
@@ -396,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -482,18 +506,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
@@ -514,19 +540,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -548,19 +574,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -574,9 +600,543 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166869A7-4B07-4B19-A580-20D6CD38EB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,24 +418,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -470,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -478,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -490,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -504,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -512,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -524,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -538,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -546,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -558,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -572,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -580,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -592,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -606,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -614,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -626,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -640,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -648,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -658,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -672,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -680,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -690,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -704,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -712,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -722,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -736,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -744,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
@@ -754,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -768,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -776,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -786,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -800,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -808,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -820,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -834,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -842,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -854,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -868,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -876,7 +875,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>16</v>
@@ -888,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -902,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -910,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
@@ -922,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -936,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -944,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -956,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -970,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -978,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -990,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -1024,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -1058,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
@@ -1092,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
@@ -1126,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824A7F13-658C-4B6E-8981-9AFC410DFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="10365"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="9768" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,24 +419,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -469,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -477,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -489,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -497,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -511,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -523,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -531,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -545,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -557,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -565,13 +566,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -579,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -591,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -599,13 +600,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -613,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -625,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -633,13 +634,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -647,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -657,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -665,13 +666,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -679,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -689,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -697,13 +698,13 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -711,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -721,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -729,13 +730,13 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -743,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
@@ -753,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -761,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -775,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -785,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -793,13 +794,13 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -807,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -819,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -827,13 +828,13 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -841,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -853,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -861,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -875,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>16</v>
@@ -887,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -895,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -909,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
@@ -921,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -929,13 +930,13 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -943,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -955,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -963,13 +964,13 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -977,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -989,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -997,13 +998,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -1023,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1031,13 +1032,13 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -1057,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1065,13 +1066,13 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>18</v>
@@ -1091,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1099,13 +1100,13 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
@@ -1125,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824A7F13-658C-4B6E-8981-9AFC410DFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FAC32B-EFD1-4E8B-996E-E54DEDD0DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="9768" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -666,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>17</v>
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>16</v>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -964,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FAC32B-EFD1-4E8B-996E-E54DEDD0DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D832AE13-27B9-4551-9656-3617E1D27749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="9768" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D832AE13-27B9-4551-9656-3617E1D27749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C159C562-222B-4457-833D-50B1793C50FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="9768" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>Trial</t>
   </si>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -492,13 +492,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -512,13 +518,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -526,13 +532,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -546,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -560,33 +572,31 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -594,33 +604,31 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -628,109 +636,115 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2"/>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2"/>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2"/>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -738,31 +752,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2"/>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C20">
         <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -770,31 +786,33 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="2"/>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C22">
         <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -802,19 +820,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -822,13 +834,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C24">
         <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -836,19 +854,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C25">
         <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -856,13 +868,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C26">
         <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -870,19 +888,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -890,13 +902,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -904,19 +922,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C29">
         <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -924,13 +936,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -938,19 +956,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -958,13 +970,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -972,19 +990,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -992,13 +1004,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1006,19 +1024,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1026,13 +1038,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1040,103 +1058,15 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C159C562-222B-4457-833D-50B1793C50FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76330281-406B-4048-8D79-03132981FDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="9768" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76330281-406B-4048-8D79-03132981FDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B859E-365A-4287-A458-79F254774FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="9768" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{D4DDEC22-95A9-4FBC-BC6E-676BF1E871C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="57">
   <si>
     <t>Trial</t>
   </si>
@@ -28,71 +42,185 @@
     <t>Condition</t>
   </si>
   <si>
+    <t>Duration_Seconds</t>
+  </si>
+  <si>
+    <t>Filename_Left</t>
+  </si>
+  <si>
+    <t>Filename_Right</t>
+  </si>
+  <si>
+    <t>Is_Repeat</t>
+  </si>
+  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>Duration_Seconds</t>
-  </si>
-  <si>
-    <t>Is_Repeat</t>
-  </si>
-  <si>
-    <t>Filename_Left</t>
-  </si>
-  <si>
-    <t>Filename_Right</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
     <t>MonocL</t>
   </si>
   <si>
+    <t>Pseudo</t>
+  </si>
+  <si>
     <t>2D</t>
   </si>
   <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Pseudo</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -109,21 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -135,11 +249,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,7 +296,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -186,7 +308,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -233,6 +355,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -268,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,21 +575,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DD0AF-B058-4617-BF46-BC504546A435}">
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195:E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -443,17 +600,17 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -461,30 +618,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -494,17 +648,17 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -514,17 +668,17 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -534,17 +688,17 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -554,17 +708,17 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -572,63 +726,79 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -636,31 +806,39 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -668,31 +846,39 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -700,31 +886,39 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -732,19 +926,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -752,13 +946,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -766,19 +966,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -786,13 +986,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -800,19 +1006,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -820,13 +1026,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -834,19 +1046,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -854,13 +1066,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -868,33 +1086,30 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -902,19 +1117,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -922,13 +1137,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -936,19 +1157,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -956,33 +1177,39 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -990,13 +1217,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1004,19 +1237,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1024,13 +1257,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1038,19 +1277,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1058,20 +1297,3022 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>6</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>7</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>8</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>8</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>8</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>8</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>8</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>8</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>8</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>8</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>8</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C198" s="7"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E203" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B859E-365A-4287-A458-79F254774FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{769B859E-365A-4287-A458-79F254774FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9EB03D5-FB4D-46BF-9F99-54F77E660A4A}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{D4DDEC22-95A9-4FBC-BC6E-676BF1E871C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="59">
   <si>
     <t>Trial</t>
   </si>
@@ -57,151 +57,157 @@
     <t>NULL</t>
   </si>
   <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>Face1_L.jpg</t>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
   </si>
   <si>
     <t>Face1_R.jpg</t>
   </si>
   <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
+    <t>Pseudo</t>
   </si>
   <si>
     <t>MonocL</t>
-  </si>
-  <si>
-    <t>Pseudo</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -212,9 +218,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,7 +265,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -576,24 +582,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DD0AF-B058-4617-BF46-BC504546A435}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195:E206"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -624,3357 +630,3353 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>5</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>5</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C102" s="3">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="3">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="E124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>6</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>6</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C124" s="3">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>6</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C125" s="3">
-        <v>1</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>6</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="3">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>6</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C127" s="3">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>6</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>6</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B146" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C146" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E147" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E149" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E150" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E151" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152">
-        <v>7</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C152" s="3">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>7</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>7</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>7</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C155" s="3">
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>7</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>7</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>7</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C158" s="3">
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>7</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C159" s="3">
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>7</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C160" s="3">
         <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>7</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C161" s="3">
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>7</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>7</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C163" s="3">
         <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>7</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C164" s="3">
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>7</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C165" s="3">
         <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>7</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C166" s="3">
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>7</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C167" s="3">
         <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>7</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C168" s="3">
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>7</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C169" s="3">
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C170" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>8</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>8</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>8</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>8</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>8</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>8</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
@@ -3983,238 +3985,238 @@
         <v>20</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C179" s="3">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
@@ -4223,94 +4225,254 @@
         <v>12</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
-        <v>0</v>
-      </c>
-      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C202" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C196" s="5"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C197" s="6"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C198" s="7"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E203" s="7"/>
+    <row r="204" spans="1:6">
+      <c r="C204" s="5"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="C206" s="7"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Faces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{769B859E-365A-4287-A458-79F254774FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9EB03D5-FB4D-46BF-9F99-54F77E660A4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948255A2-2CD3-452B-AF90-97EC33B0AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{D4DDEC22-95A9-4FBC-BC6E-676BF1E871C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4DDEC22-95A9-4FBC-BC6E-676BF1E871C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="62">
   <si>
     <t>Trial</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
+    <t>UncoverCue.jpg</t>
+  </si>
+  <si>
+    <t>CUE</t>
   </si>
 </sst>
 </file>
@@ -220,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,24 +591,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DD0AF-B058-4617-BF46-BC504546A435}">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C66" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -630,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -690,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -710,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -730,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -750,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -770,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -790,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -810,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -830,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -850,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -890,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -910,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -950,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -990,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1261,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1321,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1652,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1692,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1752,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1792,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1812,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1992,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2092,36 +2101,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C78" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2132,14 +2145,14 @@
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2150,14 +2163,14 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2168,14 +2181,14 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2186,14 +2199,14 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2204,14 +2217,14 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2222,14 +2235,14 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2240,14 +2253,14 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2258,14 +2271,14 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2276,14 +2289,14 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2294,14 +2307,14 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2312,14 +2325,14 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2330,14 +2343,14 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2348,14 +2361,14 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2366,14 +2379,14 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2384,14 +2397,14 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2402,14 +2415,14 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2420,14 +2433,14 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2438,14 +2451,14 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2456,14 +2469,14 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2474,14 +2487,14 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2492,14 +2505,14 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2510,14 +2523,14 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2532,61 +2545,61 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C104" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>5</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2597,16 +2610,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2617,16 +2630,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2637,16 +2650,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2657,16 +2670,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2677,16 +2690,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2697,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2717,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2737,16 +2750,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2757,16 +2770,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2777,16 +2790,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2797,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2817,16 +2830,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2837,16 +2850,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2857,16 +2870,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2877,16 +2890,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2897,16 +2910,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2917,16 +2930,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -2937,16 +2950,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -2957,16 +2970,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -2977,16 +2990,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -2997,16 +3010,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3017,67 +3030,67 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C129" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>6</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="3">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>6</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="3">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3088,16 +3101,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3108,16 +3121,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3128,16 +3141,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3148,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3168,16 +3181,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3188,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3208,16 +3221,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3228,16 +3241,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3248,16 +3261,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3268,16 +3281,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3288,16 +3301,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3308,16 +3321,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3328,16 +3341,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3348,16 +3361,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3368,16 +3381,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3388,16 +3401,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3408,16 +3421,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3428,16 +3441,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3448,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3468,16 +3481,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3488,16 +3501,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3508,99 +3521,107 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" s="3">
+        <v>5</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C155" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3611,14 +3632,14 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3629,14 +3650,14 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7</v>
       </c>
@@ -3647,14 +3668,14 @@
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>7</v>
       </c>
@@ -3665,14 +3686,14 @@
         <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>7</v>
       </c>
@@ -3683,14 +3704,14 @@
         <v>1</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>7</v>
       </c>
@@ -3701,14 +3722,14 @@
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>7</v>
       </c>
@@ -3719,14 +3740,14 @@
         <v>1</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7</v>
       </c>
@@ -3737,14 +3758,14 @@
         <v>1</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7</v>
       </c>
@@ -3755,14 +3776,14 @@
         <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>7</v>
       </c>
@@ -3773,14 +3794,14 @@
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -3791,14 +3812,14 @@
         <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7</v>
       </c>
@@ -3809,14 +3830,14 @@
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7</v>
       </c>
@@ -3827,14 +3848,14 @@
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>7</v>
       </c>
@@ -3845,14 +3866,14 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>7</v>
       </c>
@@ -3863,14 +3884,14 @@
         <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7</v>
       </c>
@@ -3881,14 +3902,14 @@
         <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7</v>
       </c>
@@ -3899,14 +3920,14 @@
         <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>7</v>
       </c>
@@ -3917,14 +3938,14 @@
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>7</v>
       </c>
@@ -3935,14 +3956,14 @@
         <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7</v>
       </c>
@@ -3953,105 +3974,101 @@
         <v>1</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="3">
+        <v>5</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C181" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>8</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>8</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>8</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C181" s="3">
-        <v>1</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4062,16 +4079,16 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4082,16 +4099,16 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4102,16 +4119,16 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4122,16 +4139,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4142,16 +4159,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4162,16 +4179,16 @@
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4182,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4202,16 +4219,16 @@
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4222,16 +4239,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4242,16 +4259,16 @@
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4262,16 +4279,16 @@
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4282,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4302,16 +4319,16 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4322,16 +4339,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4342,16 +4359,16 @@
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4362,16 +4379,16 @@
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4382,16 +4399,16 @@
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4402,16 +4419,16 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4422,16 +4439,16 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4442,37 +4459,117 @@
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C206" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="C204" s="5"/>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="C205" s="6"/>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="C206" s="7"/>
-    </row>
-    <row r="211" spans="5:5">
-      <c r="E211" s="7"/>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C210" s="7"/>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Faces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948255A2-2CD3-452B-AF90-97EC33B0AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189D4ED-AAEE-4870-B7F1-BCBE036B7940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4DDEC22-95A9-4FBC-BC6E-676BF1E871C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="62">
   <si>
     <t>Trial</t>
   </si>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DD0AF-B058-4617-BF46-BC504546A435}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C66" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156:E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2147,7 +2147,9 @@
       <c r="D79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
@@ -2165,7 +2167,9 @@
       <c r="D80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
@@ -2183,7 +2187,9 @@
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
@@ -2201,7 +2207,9 @@
       <c r="D82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
@@ -2219,7 +2227,9 @@
       <c r="D83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
@@ -2237,7 +2247,9 @@
       <c r="D84" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
@@ -2255,7 +2267,9 @@
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
@@ -2273,7 +2287,9 @@
       <c r="D86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
@@ -2291,7 +2307,9 @@
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
@@ -2309,7 +2327,9 @@
       <c r="D88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
@@ -2327,7 +2347,9 @@
       <c r="D89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
@@ -2345,7 +2367,9 @@
       <c r="D90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
@@ -2363,7 +2387,9 @@
       <c r="D91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
@@ -2381,7 +2407,9 @@
       <c r="D92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
@@ -2399,7 +2427,9 @@
       <c r="D93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
@@ -2417,7 +2447,9 @@
       <c r="D94" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
@@ -2435,7 +2467,9 @@
       <c r="D95" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
@@ -2453,7 +2487,9 @@
       <c r="D96" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
@@ -2471,7 +2507,9 @@
       <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
@@ -2489,7 +2527,9 @@
       <c r="D98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
@@ -2507,7 +2547,9 @@
       <c r="D99" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
@@ -2525,7 +2567,9 @@
       <c r="D100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
@@ -2543,7 +2587,9 @@
       <c r="D101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
@@ -2561,7 +2607,9 @@
       <c r="D102" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
@@ -3616,7 +3664,9 @@
       <c r="D156" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E156" s="1"/>
+      <c r="E156" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F156" t="b">
         <v>0</v>
       </c>
@@ -3634,7 +3684,9 @@
       <c r="D157" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F157" t="b">
         <v>0</v>
       </c>
@@ -3652,7 +3704,9 @@
       <c r="D158" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F158" t="b">
         <v>0</v>
       </c>
@@ -3670,7 +3724,9 @@
       <c r="D159" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F159" t="b">
         <v>0</v>
       </c>
@@ -3688,7 +3744,9 @@
       <c r="D160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F160" t="b">
         <v>0</v>
       </c>
@@ -3706,7 +3764,9 @@
       <c r="D161" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F161" t="b">
         <v>0</v>
       </c>
@@ -3724,7 +3784,9 @@
       <c r="D162" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E162" s="1"/>
+      <c r="E162" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F162" t="b">
         <v>0</v>
       </c>
@@ -3742,7 +3804,9 @@
       <c r="D163" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E163" s="1"/>
+      <c r="E163" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F163" t="b">
         <v>0</v>
       </c>
@@ -3760,7 +3824,9 @@
       <c r="D164" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F164" t="b">
         <v>0</v>
       </c>
@@ -3778,7 +3844,9 @@
       <c r="D165" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E165" s="1"/>
+      <c r="E165" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F165" t="b">
         <v>0</v>
       </c>
@@ -3796,7 +3864,9 @@
       <c r="D166" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E166" s="1"/>
+      <c r="E166" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F166" t="b">
         <v>0</v>
       </c>
@@ -3814,7 +3884,9 @@
       <c r="D167" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="1"/>
+      <c r="E167" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F167" t="b">
         <v>0</v>
       </c>
@@ -3832,7 +3904,9 @@
       <c r="D168" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="1"/>
+      <c r="E168" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F168" t="b">
         <v>1</v>
       </c>
@@ -3850,7 +3924,9 @@
       <c r="D169" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E169" s="1"/>
+      <c r="E169" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F169" t="b">
         <v>0</v>
       </c>
@@ -3868,7 +3944,9 @@
       <c r="D170" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E170" s="1"/>
+      <c r="E170" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F170" t="b">
         <v>0</v>
       </c>
@@ -3886,7 +3964,9 @@
       <c r="D171" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E171" s="1"/>
+      <c r="E171" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F171" t="b">
         <v>0</v>
       </c>
@@ -3904,7 +3984,9 @@
       <c r="D172" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F172" t="b">
         <v>0</v>
       </c>
@@ -3922,7 +4004,9 @@
       <c r="D173" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="1"/>
+      <c r="E173" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F173" t="b">
         <v>0</v>
       </c>
@@ -3940,7 +4024,9 @@
       <c r="D174" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F174" t="b">
         <v>0</v>
       </c>
@@ -3958,7 +4044,9 @@
       <c r="D175" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
@@ -3976,7 +4064,9 @@
       <c r="D176" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="1"/>
+      <c r="E176" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F176" t="b">
         <v>0</v>
       </c>
@@ -3994,7 +4084,9 @@
       <c r="D177" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F177" t="b">
         <v>0</v>
       </c>
@@ -4012,7 +4104,9 @@
       <c r="D178" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E178" s="1"/>
+      <c r="E178" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
@@ -4030,7 +4124,9 @@
       <c r="D179" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E179" s="1"/>
+      <c r="E179" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189D4ED-AAEE-4870-B7F1-BCBE036B7940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60847043-7DDF-47F5-BF58-6C1A3DB7DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4DDEC22-95A9-4FBC-BC6E-676BF1E871C0}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DD0AF-B058-4617-BF46-BC504546A435}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156:E180"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1618,7 +1618,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,7 +2129,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60847043-7DDF-47F5-BF58-6C1A3DB7DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4DDEC22-95A9-4FBC-BC6E-676BF1E871C0}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -590,25 +589,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007DD0AF-B058-4617-BF46-BC504546A435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -639,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -659,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -679,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -699,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -719,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -739,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -759,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -779,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -799,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -819,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -839,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -859,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -879,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -899,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -919,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -939,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -959,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -979,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -999,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1227,10 +1226,10 @@
         <v>36</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1487,10 +1486,10 @@
         <v>49</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2134,7 +2133,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2647,7 +2646,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3651,7 +3650,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7</v>
       </c>
@@ -3751,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>7</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4164,7 +4163,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>8</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>8</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -4655,16 +4654,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C210" s="7"/>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E215" s="7"/>
     </row>
   </sheetData>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="C78" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB5113894F300FDA973ED6C586E25FA4BF28FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -206,29 +207,29 @@
     <t>Pseudo</t>
   </si>
   <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
     <t>MonocL</t>
   </si>
   <si>
+    <t>UncoverCue.jpg</t>
+  </si>
+  <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
-    <t>CUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,14 +590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -607,7 +608,7 @@
     <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -638,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -658,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -678,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -698,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -718,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
@@ -738,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
@@ -758,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1</v>
       </c>
@@ -778,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1</v>
       </c>
@@ -798,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
@@ -818,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -838,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1</v>
       </c>
@@ -858,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -878,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
@@ -898,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1</v>
       </c>
@@ -918,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
@@ -938,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
@@ -958,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1</v>
       </c>
@@ -978,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -998,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2100,27 +2101,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2133,12 +2134,12 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
@@ -2153,12 +2154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -2173,12 +2174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -2193,12 +2194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -2213,12 +2214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
@@ -2233,12 +2234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -2253,12 +2254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
@@ -2273,12 +2274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -2293,12 +2294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
@@ -2313,12 +2314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -2333,12 +2334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
@@ -2353,12 +2354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -2373,12 +2374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -2393,12 +2394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -2413,12 +2414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
@@ -2433,12 +2434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -2453,12 +2454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
@@ -2473,12 +2474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -2493,12 +2494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
@@ -2513,12 +2514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -2533,12 +2534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
@@ -2553,12 +2554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -2573,12 +2574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -2593,12 +2594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -2613,12 +2614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
@@ -2633,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2646,7 +2647,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3617,27 +3618,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C154" s="3">
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3650,12 +3651,12 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>7</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
@@ -3670,12 +3671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>7</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C157" s="3">
         <v>1</v>
@@ -3690,12 +3691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>7</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C158" s="3">
         <v>1</v>
@@ -3710,12 +3711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>7</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C159" s="3">
         <v>1</v>
@@ -3730,12 +3731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>7</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C160" s="3">
         <v>1</v>
@@ -3750,12 +3751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>7</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C161" s="3">
         <v>1</v>
@@ -3770,12 +3771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>7</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
@@ -3790,12 +3791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>7</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C163" s="3">
         <v>1</v>
@@ -3810,12 +3811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>7</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C164" s="3">
         <v>1</v>
@@ -3830,12 +3831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>7</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C165" s="3">
         <v>1</v>
@@ -3850,12 +3851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>7</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C166" s="3">
         <v>1</v>
@@ -3870,12 +3871,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>7</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C167" s="3">
         <v>1</v>
@@ -3890,12 +3891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>7</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C168" s="3">
         <v>1</v>
@@ -3910,12 +3911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>7</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C169" s="3">
         <v>1</v>
@@ -3930,12 +3931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>7</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C170" s="3">
         <v>1</v>
@@ -3950,12 +3951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>7</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C171" s="3">
         <v>1</v>
@@ -3970,12 +3971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>7</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C172" s="3">
         <v>1</v>
@@ -3990,12 +3991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>7</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C173" s="3">
         <v>1</v>
@@ -4010,12 +4011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>7</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C174" s="3">
         <v>1</v>
@@ -4030,12 +4031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>7</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C175" s="3">
         <v>1</v>
@@ -4050,12 +4051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>7</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C176" s="3">
         <v>1</v>
@@ -4070,12 +4071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>7</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C177" s="3">
         <v>1</v>
@@ -4090,12 +4091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>7</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
@@ -4110,12 +4111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>7</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C179" s="3">
         <v>1</v>
@@ -4130,12 +4131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C180" s="3">
         <v>5</v>
@@ -4150,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4163,7 +4164,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4500,10 +4501,10 @@
         <v>51</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>8</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>8</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>8</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>8</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>0</v>
       </c>
@@ -4654,16 +4655,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:5">
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:5">
       <c r="C210" s="7"/>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:5">
       <c r="E215" s="7"/>
     </row>
   </sheetData>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstubbs5\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB5113894F300FDA973ED6C586E25FA4BF28FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,176 +59,176 @@
     <t>2D</t>
   </si>
   <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
     <t>Pseudo</t>
   </si>
   <si>
     <t>CUE</t>
   </si>
   <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
     <t>MonocL</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,14 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection sqref="A1:F215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -608,7 +607,7 @@
     <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -639,7 +638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -670,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -690,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -710,16 +709,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -730,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -750,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -770,16 +769,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -790,16 +789,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -810,16 +809,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -830,16 +829,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -850,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -870,16 +869,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -890,16 +889,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -910,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -930,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -950,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -970,16 +969,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -990,16 +989,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1010,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1030,16 +1029,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1050,16 +1049,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1070,16 +1069,16 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1090,16 +1089,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1110,16 +1109,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1130,487 +1129,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1621,507 +1620,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2134,507 +2133,507 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2647,487 +2646,487 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C120" s="3">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3149,16 +3148,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3169,16 +3168,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3189,16 +3188,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3209,16 +3208,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3229,16 +3228,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3249,16 +3248,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3269,16 +3268,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3289,16 +3288,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3309,16 +3308,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3329,16 +3328,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3349,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3369,16 +3368,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3389,16 +3388,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3409,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3429,16 +3428,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3449,16 +3448,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3469,16 +3468,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3489,16 +3488,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3509,16 +3508,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3529,16 +3528,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3549,16 +3548,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3569,16 +3568,16 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3589,16 +3588,16 @@
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3609,36 +3608,36 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C154" s="3">
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3651,507 +3650,507 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>0</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C180" s="3">
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4164,487 +4163,487 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>8</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="3">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F182" s="2" t="s">
+      <c r="E200" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>8</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C183" s="3">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>8</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C184" s="3">
-        <v>1</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>8</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C185" s="3">
-        <v>1</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>8</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C186" s="3">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>8</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C187" s="3">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="F203" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>8</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>8</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="E204" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>8</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>8</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>8</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C193" s="3">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>8</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C194" s="3">
-        <v>1</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>8</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C198" s="3">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C200" s="3">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>8</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C203" s="3">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" s="1" t="s">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>8</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>8</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C205" s="3">
-        <v>1</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -4655,16 +4654,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="3:5">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="3:5">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C210" s="7"/>
     </row>
-    <row r="215" spans="3:5">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E215" s="7"/>
     </row>
   </sheetData>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstubbs5\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB5113894F300FDA973ED6C586E25FA4BF28FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,176 +60,176 @@
     <t>2D</t>
   </si>
   <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
     <t>3D</t>
   </si>
   <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
     <t>Pseudo</t>
   </si>
   <si>
     <t>CUE</t>
   </si>
   <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
     <t>MonocL</t>
   </si>
   <si>
+    <t>UncoverCue.jpg</t>
+  </si>
+  <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>Face6_L.png</t>
-  </si>
-  <si>
-    <t>Face22_L.png</t>
-  </si>
-  <si>
-    <t>Face1_L.png</t>
-  </si>
-  <si>
-    <t>Face4_L.png</t>
-  </si>
-  <si>
-    <t>Face18_L.png</t>
-  </si>
-  <si>
-    <t>Face14_L.png</t>
-  </si>
-  <si>
-    <t>Face15_L.png</t>
-  </si>
-  <si>
-    <t>Face17_L.png</t>
-  </si>
-  <si>
-    <t>Face11_L.png</t>
-  </si>
-  <si>
-    <t>Face16_L.png</t>
-  </si>
-  <si>
-    <t>Face23_L.png</t>
-  </si>
-  <si>
-    <t>Face20_L.png</t>
-  </si>
-  <si>
-    <t>Face10_L.png</t>
-  </si>
-  <si>
-    <t>Face2_L.png</t>
-  </si>
-  <si>
-    <t>Face3_L.png</t>
-  </si>
-  <si>
-    <t>Face12_L.png</t>
-  </si>
-  <si>
-    <t>Face5_L.png</t>
-  </si>
-  <si>
-    <t>Face21_L.png</t>
-  </si>
-  <si>
-    <t>Face13_L.png</t>
-  </si>
-  <si>
-    <t>Face19_L.png</t>
-  </si>
-  <si>
-    <t>Face7_L.png</t>
-  </si>
-  <si>
-    <t>Face8_L.png</t>
-  </si>
-  <si>
-    <t>Face9_L.png</t>
-  </si>
-  <si>
-    <t>Face7_R.png</t>
-  </si>
-  <si>
-    <t>Face21_R.png</t>
-  </si>
-  <si>
-    <t>Face6_R.png</t>
-  </si>
-  <si>
-    <t>Face13_R.png</t>
-  </si>
-  <si>
-    <t>Face22_R.png</t>
-  </si>
-  <si>
-    <t>Face12_R.png</t>
-  </si>
-  <si>
-    <t>Face18_R.png</t>
-  </si>
-  <si>
-    <t>Face8_R.png</t>
-  </si>
-  <si>
-    <t>Face19_R.png</t>
-  </si>
-  <si>
-    <t>Face10_R.png</t>
-  </si>
-  <si>
-    <t>Face4_R.png</t>
-  </si>
-  <si>
-    <t>Face5_R.png</t>
-  </si>
-  <si>
-    <t>Face20_R.png</t>
-  </si>
-  <si>
-    <t>Face16_R.png</t>
-  </si>
-  <si>
-    <t>Face23_R.png</t>
-  </si>
-  <si>
-    <t>Face15_R.png</t>
-  </si>
-  <si>
-    <t>Face3_R.png</t>
-  </si>
-  <si>
-    <t>Face17_R.png</t>
-  </si>
-  <si>
-    <t>Face11_R.png</t>
-  </si>
-  <si>
-    <t>Face9_R.png</t>
-  </si>
-  <si>
-    <t>Face2_R.png</t>
-  </si>
-  <si>
-    <t>Face14_R.png</t>
-  </si>
-  <si>
-    <t>Face1_R.png</t>
-  </si>
-  <si>
-    <t>CoverCue.png</t>
-  </si>
-  <si>
-    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,14 +590,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F215"/>
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -607,7 +608,7 @@
     <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -638,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -649,476 +650,476 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1129,487 +1130,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1620,507 +1621,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2133,507 +2134,507 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2646,487 +2647,487 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="3">
-        <v>1</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3148,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3168,16 +3169,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3188,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3208,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3228,16 +3229,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3248,16 +3249,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3268,16 +3269,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3288,16 +3289,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3308,16 +3309,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3328,16 +3329,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3348,16 +3349,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3368,16 +3369,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3388,16 +3389,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3408,16 +3409,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3428,16 +3429,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3448,16 +3449,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3468,16 +3469,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3488,16 +3489,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3508,16 +3509,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3528,16 +3529,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3548,16 +3549,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3568,16 +3569,16 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3588,16 +3589,16 @@
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3608,36 +3609,36 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C154" s="3">
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3650,507 +3651,507 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>7</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
+      <c r="E174" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C180" s="3">
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4163,487 +4164,487 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>8</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C195" s="3">
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>8</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C196" s="3">
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>8</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>8</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>8</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>8</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C203" s="3">
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>8</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C205" s="3">
         <v>1</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>0</v>
       </c>
@@ -4654,16 +4655,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:5">
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:5">
       <c r="C210" s="7"/>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:5">
       <c r="E215" s="7"/>
     </row>
   </sheetData>

--- a/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB5113894F300FDA973ED6C586E25FA4BF28FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A78E3C8-E738-4F93-81C7-7C29F33D90C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,166 +60,166 @@
     <t>2D</t>
   </si>
   <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
   </si>
   <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
     <t>Pseudo</t>
   </si>
   <si>
     <t>CUE</t>
   </si>
   <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
     <t>MonocL</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,21 +594,21 @@
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+      <selection sqref="A1:F215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,16 +650,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -670,16 +670,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -710,16 +710,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -730,16 +730,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -750,16 +750,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -770,16 +770,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -790,16 +790,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -810,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -830,16 +830,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -870,16 +870,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -890,16 +890,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -910,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -950,16 +950,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -970,16 +970,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -990,16 +990,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1010,16 +1010,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1050,16 +1050,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1070,16 +1070,16 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1090,16 +1090,16 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1110,16 +1110,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1130,487 +1130,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1621,507 +1621,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C77" s="3">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2134,507 +2134,507 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3">
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2647,487 +2647,487 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C120" s="3">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3149,16 +3149,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3169,16 +3169,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3189,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3209,16 +3209,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3229,16 +3229,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3249,16 +3249,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3269,16 +3269,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3289,16 +3289,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3309,16 +3309,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3329,16 +3329,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3349,16 +3349,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3369,16 +3369,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3389,16 +3389,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3409,16 +3409,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3429,16 +3429,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3449,16 +3449,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3469,16 +3469,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3489,16 +3489,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3509,16 +3509,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3529,16 +3529,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3549,16 +3549,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3569,16 +3569,16 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3589,16 +3589,16 @@
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3609,36 +3609,36 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C154" s="3">
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0</v>
       </c>
@@ -3651,507 +3651,507 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>7</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>0</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C180" s="3">
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0</v>
       </c>
@@ -4164,487 +4164,487 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>8</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="3">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F182" s="2" t="s">
+      <c r="E200" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>8</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C183" s="3">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>8</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C184" s="3">
-        <v>1</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>8</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C185" s="3">
-        <v>1</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>8</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C186" s="3">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>8</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C187" s="3">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="F203" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>8</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>8</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="E204" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>8</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>8</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>8</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C193" s="3">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>8</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C194" s="3">
-        <v>1</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>8</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C198" s="3">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C200" s="3">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>8</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C203" s="3">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E203" s="1" t="s">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>8</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>8</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C205" s="3">
-        <v>1</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
@@ -4655,16 +4655,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="3:5">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" s="6"/>
     </row>
-    <row r="210" spans="3:5">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C210" s="7"/>
     </row>
-    <row r="215" spans="3:5">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E215" s="7"/>
     </row>
   </sheetData>
